--- a/2020/March/All Details/04.03.2020/MC Bank Statement March 2020.xlsx
+++ b/2020/March/All Details/04.03.2020/MC Bank Statement March 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="March 2020" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Date: 04.03.2020</t>
+  </si>
+  <si>
+    <t>05.02.2020</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1546,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1558,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1578,14 +1581,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1889,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2136,9 +2139,15 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="59"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="63">
+        <v>0</v>
+      </c>
+      <c r="D15" s="63">
+        <v>0</v>
+      </c>
       <c r="E15" s="66">
         <f t="shared" si="0"/>
         <v>3000</v>
@@ -2999,8 +3008,8 @@
   </sheetPr>
   <dimension ref="A1:AK222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
